--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,397 +55,385 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>beautifully</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>rice</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
     <t>mas</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>nicely</t>
   </si>
   <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>easy</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>fan</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>ox</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>cup</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>clean</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>ox</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>easily</t>
+    <t>lot</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>lot</t>
+    <t>long</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -809,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -878,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -896,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -920,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -952,13 +940,13 @@
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -970,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -978,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -996,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1020,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1028,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3207547169811321</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1046,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9140625</v>
       </c>
       <c r="L6">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M6">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1070,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1078,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2558139534883721</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1096,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1120,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1128,37 +1116,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.217948717948718</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1170,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1178,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1919191919191919</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1196,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8374613003095975</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="L9">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="M9">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1220,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1228,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1027027027027027</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1246,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1270,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1307,10 +1295,10 @@
         <v>0.75</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1318,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7402597402597403</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1344,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7229437229437229</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L14">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M14">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1370,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1400,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1408,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.684931506849315</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1434,13 +1422,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6745762711864407</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L17">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1460,13 +1448,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6619718309859155</v>
+        <v>0.6644067796610169</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1486,13 +1474,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6436597110754414</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L19">
-        <v>802</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>802</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>444</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1512,13 +1500,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6222222222222222</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1530,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1538,13 +1526,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1556,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1564,13 +1552,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6140350877192983</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1582,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1590,13 +1578,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6114285714285714</v>
+        <v>0.6388443017656501</v>
       </c>
       <c r="L23">
-        <v>107</v>
+        <v>796</v>
       </c>
       <c r="M23">
-        <v>107</v>
+        <v>796</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1608,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>68</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1616,13 +1604,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6111111111111112</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1634,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1642,13 +1630,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6029411764705882</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1660,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1668,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5897435897435898</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1686,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1694,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5857142857142857</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1712,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1720,13 +1708,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1738,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1746,13 +1734,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1764,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1772,13 +1760,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5625</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1790,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1798,13 +1786,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1816,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1824,13 +1812,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5396825396825397</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1842,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1850,13 +1838,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5299145299145299</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L33">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1868,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1876,13 +1864,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5294117647058824</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1894,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1902,13 +1890,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5230769230769231</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1920,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1928,13 +1916,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5180722891566265</v>
+        <v>0.53125</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1946,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1954,13 +1942,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5131578947368421</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1972,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1980,13 +1968,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5089820359281437</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L38">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1998,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2006,13 +1994,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2024,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2032,13 +2020,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2050,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2058,13 +2046,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.4903846153846154</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L41">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2076,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2084,13 +2072,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.49</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L42">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2102,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2110,7 +2098,7 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4871794871794872</v>
+        <v>0.475</v>
       </c>
       <c r="L43">
         <v>19</v>
@@ -2128,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2136,13 +2124,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.4754098360655737</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2154,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2162,13 +2150,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.4615384615384616</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2180,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2188,13 +2176,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4586466165413534</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2206,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2214,13 +2202,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4567901234567901</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2232,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2240,13 +2228,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2258,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2266,13 +2254,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4444444444444444</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2284,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2292,13 +2280,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4390243902439024</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2310,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2318,13 +2306,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.4216867469879518</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L51">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2336,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2370,13 +2358,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.4181818181818182</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2388,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2396,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.4081632653061225</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2414,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2422,13 +2410,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.3947368421052632</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2440,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2448,13 +2436,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2466,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2474,13 +2462,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3693693693693694</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2492,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2500,13 +2488,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3618677042801556</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L58">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2518,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2526,13 +2514,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3548387096774194</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2544,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2552,13 +2540,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3533834586466165</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L60">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2570,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2578,13 +2566,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3529411764705883</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L61">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2596,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>264</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2604,13 +2592,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3472222222222222</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2622,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2630,13 +2618,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3404255319148936</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2648,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2656,13 +2644,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.3381294964028777</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L64">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2674,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2708,13 +2696,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.3260869565217391</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2726,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2734,13 +2722,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.3176470588235294</v>
+        <v>0.3073929961089494</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2752,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>58</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2760,13 +2748,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.2962962962962963</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2778,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>76</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2786,13 +2774,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.2941176470588235</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2804,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2812,13 +2800,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.2931506849315069</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L70">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="M70">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2830,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>516</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2838,13 +2826,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.2871287128712871</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="L71">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2856,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2864,13 +2852,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2833333333333333</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L72">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2882,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2890,13 +2878,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.277511961722488</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L73">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M73">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2908,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2916,13 +2904,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.25</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2934,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2942,13 +2930,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.2411194833153929</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L75">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="M75">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2960,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>705</v>
+        <v>686</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2968,13 +2956,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.2348993288590604</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M76">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2986,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2994,13 +2982,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2317880794701987</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L77">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3012,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3020,13 +3008,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2222222222222222</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3038,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3046,13 +3034,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.2201834862385321</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L79">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3064,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3072,13 +3060,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.2162162162162162</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3090,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3098,25 +3086,25 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2142857142857143</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3124,13 +3112,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.2142857142857143</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3142,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>66</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3150,13 +3138,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.213166144200627</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L83">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M83">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3168,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>251</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3176,25 +3164,25 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.2105960264900662</v>
+        <v>0.206145966709347</v>
       </c>
       <c r="L84">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M84">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>596</v>
+        <v>620</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3202,13 +3190,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.2095238095238095</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L85">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M85">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3220,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3228,13 +3216,13 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.2065217391304348</v>
+        <v>0.2</v>
       </c>
       <c r="L86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3246,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3254,13 +3242,13 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.2</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L87">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="M87">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3272,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>104</v>
+        <v>606</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3280,13 +3268,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.1994884910485933</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L88">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="M88">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3298,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>626</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3306,13 +3294,13 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1965811965811966</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3324,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3332,13 +3320,13 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="L90">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M90">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3350,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3358,13 +3346,13 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1882352941176471</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3376,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3384,25 +3372,25 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1751824817518248</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L92">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M92">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3410,25 +3398,25 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1744186046511628</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="L93">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M93">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3436,13 +3424,13 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1721311475409836</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L94">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3454,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3462,13 +3450,13 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1707317073170732</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L95">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M95">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3480,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3488,13 +3476,13 @@
         <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1616161616161616</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L96">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3506,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3514,25 +3502,25 @@
         <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1540540540540541</v>
+        <v>0.147766323024055</v>
       </c>
       <c r="L97">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M97">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N97">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>313</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3540,7 +3528,7 @@
         <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1472868217054264</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L98">
         <v>19</v>
@@ -3558,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3566,13 +3554,13 @@
         <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1454545454545454</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M99">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3584,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>141</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3592,13 +3580,13 @@
         <v>114</v>
       </c>
       <c r="K100">
-        <v>0.1450381679389313</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="L100">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3610,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3618,13 +3606,13 @@
         <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1439114391143911</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="L101">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M101">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3636,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>232</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3644,13 +3632,13 @@
         <v>116</v>
       </c>
       <c r="K102">
-        <v>0.1374570446735395</v>
+        <v>0.1337719298245614</v>
       </c>
       <c r="L102">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M102">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3662,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>251</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3670,13 +3658,13 @@
         <v>117</v>
       </c>
       <c r="K103">
-        <v>0.130718954248366</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="L103">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M103">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3688,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3696,13 +3684,13 @@
         <v>118</v>
       </c>
       <c r="K104">
-        <v>0.126984126984127</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L104">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M104">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3714,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>110</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3722,13 +3710,13 @@
         <v>119</v>
       </c>
       <c r="K105">
-        <v>0.125</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L105">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M105">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3740,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3748,13 +3736,13 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <v>0.1231527093596059</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L106">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M106">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3766,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3774,25 +3762,25 @@
         <v>121</v>
       </c>
       <c r="K107">
-        <v>0.1226993865030675</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="L107">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M107">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>143</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3800,13 +3788,13 @@
         <v>122</v>
       </c>
       <c r="K108">
-        <v>0.1218487394957983</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L108">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M108">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3818,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3826,13 +3814,13 @@
         <v>123</v>
       </c>
       <c r="K109">
-        <v>0.1181818181818182</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L109">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M109">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3844,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>388</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3852,13 +3840,13 @@
         <v>124</v>
       </c>
       <c r="K110">
-        <v>0.1153846153846154</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3870,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>138</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3878,13 +3866,13 @@
         <v>125</v>
       </c>
       <c r="K111">
-        <v>0.1129943502824859</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="L111">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M111">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3896,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3904,13 +3892,13 @@
         <v>126</v>
       </c>
       <c r="K112">
-        <v>0.1121718377088305</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L112">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3922,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>372</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3930,13 +3918,13 @@
         <v>127</v>
       </c>
       <c r="K113">
-        <v>0.1111111111111111</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L113">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M113">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3948,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3956,13 +3944,13 @@
         <v>128</v>
       </c>
       <c r="K114">
-        <v>0.1103896103896104</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L114">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M114">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3974,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>137</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -3982,25 +3970,25 @@
         <v>129</v>
       </c>
       <c r="K115">
-        <v>0.1048387096774194</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L115">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M115">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>222</v>
+        <v>639</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4008,7 +3996,7 @@
         <v>130</v>
       </c>
       <c r="K116">
-        <v>0.09803921568627451</v>
+        <v>0.075</v>
       </c>
       <c r="L116">
         <v>15</v>
@@ -4026,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>138</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4034,25 +4022,25 @@
         <v>131</v>
       </c>
       <c r="K117">
-        <v>0.0975609756097561</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L117">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="M117">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N117">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>629</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4060,25 +4048,25 @@
         <v>132</v>
       </c>
       <c r="K118">
-        <v>0.09375</v>
+        <v>0.06909430438842204</v>
       </c>
       <c r="L118">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="M118">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
-        <v>145</v>
+        <v>997</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4086,13 +4074,13 @@
         <v>133</v>
       </c>
       <c r="K119">
-        <v>0.08653846153846154</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L119">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M119">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4104,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>190</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4112,25 +4100,25 @@
         <v>134</v>
       </c>
       <c r="K120">
-        <v>0.08648648648648649</v>
+        <v>0.05950095969289827</v>
       </c>
       <c r="L120">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M120">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>169</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4138,25 +4126,25 @@
         <v>135</v>
       </c>
       <c r="K121">
-        <v>0.07749766573295985</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="L121">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="M121">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="N121">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O121">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>988</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4164,7 +4152,7 @@
         <v>136</v>
       </c>
       <c r="K122">
-        <v>0.06830601092896176</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L122">
         <v>25</v>
@@ -4182,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>341</v>
+        <v>517</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4190,25 +4178,25 @@
         <v>137</v>
       </c>
       <c r="K123">
-        <v>0.06598984771573604</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L123">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M123">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4216,25 +4204,25 @@
         <v>138</v>
       </c>
       <c r="K124">
-        <v>0.0521978021978022</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L124">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M124">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N124">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O124">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>345</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4242,13 +4230,13 @@
         <v>139</v>
       </c>
       <c r="K125">
-        <v>0.04797047970479705</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="L125">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M125">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4260,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>516</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4268,129 +4256,25 @@
         <v>140</v>
       </c>
       <c r="K126">
-        <v>0.04589371980676329</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="L126">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M126">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="127" spans="10:17">
-      <c r="J127" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K127">
-        <v>0.04065040650406504</v>
-      </c>
-      <c r="L127">
-        <v>15</v>
-      </c>
-      <c r="M127">
-        <v>17</v>
-      </c>
-      <c r="N127">
-        <v>0.88</v>
-      </c>
-      <c r="O127">
-        <v>0.12</v>
-      </c>
-      <c r="P127" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q127">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="128" spans="10:17">
-      <c r="J128" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K128">
-        <v>0.03892733564013841</v>
-      </c>
-      <c r="L128">
-        <v>45</v>
-      </c>
-      <c r="M128">
-        <v>46</v>
-      </c>
-      <c r="N128">
-        <v>0.98</v>
-      </c>
-      <c r="O128">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P128" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q128">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K129">
-        <v>0.0345489443378119</v>
-      </c>
-      <c r="L129">
-        <v>18</v>
-      </c>
-      <c r="M129">
-        <v>19</v>
-      </c>
-      <c r="N129">
-        <v>0.95</v>
-      </c>
-      <c r="O129">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P129" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q129">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="130" spans="10:17">
-      <c r="J130" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K130">
-        <v>0.02883355176933159</v>
-      </c>
-      <c r="L130">
-        <v>22</v>
-      </c>
-      <c r="M130">
-        <v>26</v>
-      </c>
-      <c r="N130">
-        <v>0.85</v>
-      </c>
-      <c r="O130">
-        <v>0.15</v>
-      </c>
-      <c r="P130" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q130">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
